--- a/FOR_TOP/charges.xlsx
+++ b/FOR_TOP/charges.xlsx
@@ -366,7 +366,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -382,11 +382,11 @@
         <v>378</v>
       </c>
       <c r="C1">
-        <v>2.1514000000000002</v>
+        <v>2.0468000000000002</v>
       </c>
       <c r="E1">
         <f>B1*C1</f>
-        <v>813.22920000000011</v>
+        <v>773.69040000000007</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -482,7 +482,7 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E9">
         <f>SUM(E1:E7)</f>
-        <v>39.540000000000092</v>
+        <v>1.2000000000540467E-3</v>
       </c>
     </row>
   </sheetData>

--- a/FOR_TOP/charges.xlsx
+++ b/FOR_TOP/charges.xlsx
@@ -366,7 +366,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -382,11 +382,11 @@
         <v>378</v>
       </c>
       <c r="C1">
-        <v>2.0468000000000002</v>
+        <v>1.3815900000000001</v>
       </c>
       <c r="E1">
         <f>B1*C1</f>
-        <v>773.69040000000007</v>
+        <v>522.24102000000005</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -397,11 +397,11 @@
         <v>960</v>
       </c>
       <c r="C2">
-        <v>-0.70620000000000005</v>
+        <v>-0.52959999999999996</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E7" si="0">B2*C2</f>
-        <v>-677.952</v>
+        <v>-508.41599999999994</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -412,11 +412,11 @@
         <v>480</v>
       </c>
       <c r="C3">
-        <v>0.66169999999999995</v>
+        <v>0.49619999999999997</v>
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
-        <v>317.61599999999999</v>
+        <v>238.17599999999999</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -427,11 +427,11 @@
         <v>480</v>
       </c>
       <c r="C4">
-        <v>-0.22570000000000001</v>
+        <v>-0.16919999999999999</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>-108.33600000000001</v>
+        <v>-81.215999999999994</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -442,11 +442,11 @@
         <v>480</v>
       </c>
       <c r="C5">
-        <v>0.1353</v>
+        <v>0.1014</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>64.944000000000003</v>
+        <v>48.672000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -457,11 +457,11 @@
         <v>504</v>
       </c>
       <c r="C6">
-        <v>-0.93589999999999995</v>
+        <v>-0.58679999999999999</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
-        <v>-471.6936</v>
+        <f>B6*C6</f>
+        <v>-295.74720000000002</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -472,17 +472,17 @@
         <v>252</v>
       </c>
       <c r="C7">
-        <v>0.4037</v>
+        <v>0.30270000000000002</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>101.7324</v>
+        <v>76.2804</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E9">
         <f>SUM(E1:E7)</f>
-        <v>1.2000000000540467E-3</v>
+        <v>-9.7799999999352849E-3</v>
       </c>
     </row>
   </sheetData>
